--- a/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
+++ b/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\3. Requirement\Complete\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
+    <workbookView minimized="1" xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="4" r:id="rId1"/>
@@ -236,6 +241,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -283,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
+++ b/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách" sheetId="4" r:id="rId1"/>
@@ -611,8 +611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
+++ b/trunk/3. Requirement/Complete/Business Rules_v0.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final Project\3. Requirement\Complete\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\3. Requirement\Complete\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>BR.05.01</t>
+  </si>
+  <si>
+    <t>BR.01.12</t>
+  </si>
+  <si>
+    <t>đăng nhập quá 5 lần sẽ bị khóa tài khoản 5-15 phút</t>
   </si>
 </sst>
 </file>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +721,14 @@
       </c>
       <c r="B12" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
